--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBao_ChiNgoaiTe.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBao_ChiNgoaiTe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\trangnt3\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Viettel\QLNS\11-10-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
   <definedNames>
     <definedName name="__dt__">Sheet1!$B$14:$H$14</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$17:$K$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$26</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$B$17:$K$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$12:$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -116,22 +116,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>NGƯỜI LẬP</t>
-  </si>
-  <si>
-    <t>TUQ. CỤC TRƯỞNG</t>
-  </si>
-  <si>
-    <t>TRƯỞNG PHÒNG</t>
-  </si>
-  <si>
     <t>Mẫu số 05/TTNH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CỤC TÀI CHÍNH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PHÒNG KẾ TOÁN</t>
   </si>
   <si>
     <t>Số:…/TB-NH</t>
@@ -219,6 +204,30 @@
       </rPr>
       <t xml:space="preserve"> lập Thông tri cấp kinh phí gửi cho các đơn vị.</t>
     </r>
+  </si>
+  <si>
+    <t>&lt;#Ten1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#idDonVi&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#idDonViCapDuoi&gt;))&gt;</t>
   </si>
 </sst>
 </file>
@@ -521,7 +530,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -544,9 +553,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -556,7 +562,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -596,6 +601,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -612,93 +707,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,433 +994,478 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K27"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="0.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="1.140625" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="0.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="1.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="22"/>
+    <row r="1" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="19"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-    </row>
-    <row r="4" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="2:11" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B4" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-    </row>
-    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="H4" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B5" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B6" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B7" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+    </row>
+    <row r="8" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B9" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+    </row>
+    <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="2:11" ht="19.2" x14ac:dyDescent="0.35">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="48"/>
+      <c r="G12" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="I12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-    </row>
-    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-    </row>
-    <row r="7" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="8" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+    </row>
+    <row r="14" spans="2:11" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="42" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
-    </row>
-    <row r="13" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="H15" s="46"/>
+      <c r="I15" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="49" t="s">
+      <c r="J15" s="23"/>
+      <c r="K15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
+    </row>
+    <row r="16" spans="2:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="59" t="s">
+    <row r="19" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+    </row>
+    <row r="20" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B20" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="K20" s="17"/>
+    </row>
+    <row r="21" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+    </row>
+    <row r="22" spans="2:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="59" t="s">
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="2:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-    </row>
-    <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="61"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="61"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B29" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B12:D13"/>
+  <mergeCells count="33">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="B20:I20"/>
     <mergeCell ref="C21:K21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C25:J25"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B9:K9"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="G12:H13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"&amp;12Tờ: &lt;#To&gt;- Trang: &amp;P/&amp;N</oddHeader>
   </headerFooter>
@@ -1427,12 +1480,12 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1503,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1466,7 +1519,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1484,7 +1537,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1500,7 +1553,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1516,7 +1569,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1536,7 +1589,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1552,7 +1605,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -1576,7 +1629,7 @@
       </c>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="79.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
@@ -1610,7 +1663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="H10" s="5" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H11" s="5" t="s">
         <v>19</v>
       </c>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBao_ChiNgoaiTe.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBao_ChiNgoaiTe.xlsx
@@ -18,8 +18,8 @@
   <definedNames>
     <definedName name="__dt__">Sheet1!$B$14:$H$14</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$17:$K$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$30</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$B$17:$K$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$12:$13</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -116,18 +116,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Mẫu số 05/TTNH</t>
-  </si>
-  <si>
-    <t>Số:…/TB-NH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THÔNG BÁO</t>
-  </si>
-  <si>
-    <t>CẤP KINH PHÍ BẰNG NGOẠI TỆ TỪ NGUỒN QUỸ DỰ TRỮ NGOẠI HỐI</t>
-  </si>
-  <si>
     <t>(Từ ngày &lt;#tungay&gt; đến ngày &lt;#denngay&gt;)</t>
   </si>
   <si>
@@ -182,30 +170,6 @@
     <t xml:space="preserve"> Căn cứ Thông báo này, đề nghị Phòng Kế hoạch ngân sách thông báo ngân sách từ Quỹ dự trữ ngoại hối gửi các Phòng</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">quản lý: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;#sPhongBan&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> lập Thông tri cấp kinh phí gửi cho các đơn vị.</t>
-    </r>
-  </si>
-  <si>
     <t>&lt;#Ten1&gt;</t>
   </si>
   <si>
@@ -228,13 +192,28 @@
   </si>
   <si>
     <t>&lt;#evaluate(UPPER(&lt;#idDonViCapDuoi&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sTieuDe1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sTieuDe2&gt;</t>
+  </si>
+  <si>
+    <t>Số:…./TB-NH</t>
+  </si>
+  <si>
+    <t>quản lý: &lt;#sPhongBan&gt; lập Thông tri cấp kinh phí gửi cho các đơn vị.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              Mẫu số 05/TTNH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,13 +308,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="14"/>
       <color theme="1"/>
@@ -530,7 +502,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,12 +527,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -589,14 +555,11 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -604,16 +567,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -640,45 +606,42 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,9 +649,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -707,6 +667,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,10 +961,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:F24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1009,458 +976,435 @@
     <col min="5" max="5" width="26.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="0.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="1.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="32" t="s">
-        <v>27</v>
-      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="51" t="s">
+      <c r="I2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
     </row>
     <row r="3" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="59" t="s">
+      <c r="I3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="2:11" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B4" s="52" t="s">
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="I5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B6" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B7" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B10" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B5" s="61" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-    </row>
-    <row r="6" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="F12" s="46"/>
+      <c r="G12" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-    </row>
-    <row r="7" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="62" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="47"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-    </row>
-    <row r="8" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-    </row>
-    <row r="10" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="2:11" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="47" t="s">
+    </row>
+    <row r="14" spans="2:11" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="48"/>
-      <c r="I12" s="36" t="s">
+      <c r="H14" s="40"/>
+      <c r="I14" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-    </row>
-    <row r="13" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="39" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="22" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="23" t="s">
+    </row>
+    <row r="16" spans="2:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="C17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="C18" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+    </row>
+    <row r="20" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
+      <c r="C20" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="I20" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-    </row>
-    <row r="20" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="17"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
+      <c r="C21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="2:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
     </row>
     <row r="23" spans="2:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="17"/>
-      <c r="I23" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
     </row>
     <row r="24" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
-      <c r="D26" s="34"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="17"/>
+      <c r="C27" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="17"/>
+      <c r="I27" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
     </row>
     <row r="28" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="B29" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-    </row>
-    <row r="30" spans="2:11" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="30">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I5:K5"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="C18:J18"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B10:K10"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E12:F13"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B12:D13"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B22:G22"/>
     <mergeCell ref="G12:H13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
